--- a/Table1/GarceaBuxbaum.ActionSelection.ForGitHub.xlsx
+++ b/Table1/GarceaBuxbaum.ActionSelection.ForGitHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fgarcea/Documents/GitHub/GarceaBuxbaum_ActionSelectionProject/Table1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A47DC60-1286-1F4A-B5F4-2EA80FBBB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85683B4A-8579-EF44-88F0-24434B1B3A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35800" windowHeight="20680" xr2:uid="{EC169B87-A1F2-0E49-A276-F5E8CA670A50}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="86">
   <si>
     <t>congruent</t>
   </si>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740CD30-274D-5B47-8571-6053280AB57D}">
   <dimension ref="A1:CF203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="89" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3448,18 +3448,117 @@
       <c r="U64" s="7"/>
       <c r="AF64" s="8"/>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="O65"/>
       <c r="U65" s="7"/>
       <c r="AE65" s="8"/>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <f>AVERAGE(B2:B64)</f>
+        <v>0.7127467361213492</v>
+      </c>
+      <c r="C66">
+        <f>AVERAGE(C2:C64)</f>
+        <v>0.85873413692962564</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66">
+        <f>AVERAGE(G2:G64)</f>
+        <v>752.21920406870277</v>
+      </c>
+      <c r="H66">
+        <f>AVERAGE(H2:H64)</f>
+        <v>823.87059005851211</v>
+      </c>
+      <c r="K66" t="s">
+        <v>81</v>
+      </c>
+      <c r="L66">
+        <f>AVERAGE(L2:L64)</f>
+        <v>925.99881936431814</v>
+      </c>
+      <c r="M66">
+        <f>AVERAGE(M2:M64)</f>
+        <v>983.10741962066209</v>
+      </c>
       <c r="O66"/>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67">
+        <f>STDEV(B2:B64)</f>
+        <v>0.18260006445803484</v>
+      </c>
+      <c r="C67">
+        <f>STDEV(C2:C64)</f>
+        <v>0.15747868871166118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67">
+        <f>STDEV(G2:G64)</f>
+        <v>148.95834800631337</v>
+      </c>
+      <c r="H67">
+        <f>STDEV(H2:H64)</f>
+        <v>161.5047781418796</v>
+      </c>
+      <c r="K67" t="s">
+        <v>83</v>
+      </c>
+      <c r="L67">
+        <f>STDEV(L2:L64)</f>
+        <v>251.85626864444194</v>
+      </c>
+      <c r="M67">
+        <f>STDEV(M2:M64)</f>
+        <v>247.82783439781298</v>
+      </c>
       <c r="O67"/>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <f>B67/SQRT(COUNT(B2:B64))</f>
+        <v>2.3005445711444018E-2</v>
+      </c>
+      <c r="C68">
+        <f>C67/SQRT(COUNT(C2:C64))</f>
+        <v>1.9840449863029051E-2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68">
+        <f>G67/SQRT(COUNT(G2:G64))</f>
+        <v>18.766987834843768</v>
+      </c>
+      <c r="H68">
+        <f>H67/SQRT(COUNT(H2:H64))</f>
+        <v>20.347689452955894</v>
+      </c>
+      <c r="K68" t="s">
+        <v>82</v>
+      </c>
+      <c r="L68">
+        <f>L67/SQRT(COUNT(L2:L64))</f>
+        <v>31.73090728408895</v>
+      </c>
+      <c r="M68">
+        <f>M67/SQRT(COUNT(M2:M64))</f>
+        <v>31.22337227506247</v>
+      </c>
       <c r="R68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
@@ -3471,35 +3570,35 @@
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
@@ -4067,7 +4166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915AF2AC-B95E-9E4A-BCA4-4AC44619DE86}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5045,7 +5146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Table1/GarceaBuxbaum.ActionSelection.ForGitHub.xlsx
+++ b/Table1/GarceaBuxbaum.ActionSelection.ForGitHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fgarcea/Documents/GitHub/GarceaBuxbaum_ActionSelectionProject/Table1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85683B4A-8579-EF44-88F0-24434B1B3A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C1CFA-094C-C24E-8D9C-A093D0EC3327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35800" windowHeight="20680" xr2:uid="{EC169B87-A1F2-0E49-A276-F5E8CA670A50}"/>
   </bookViews>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740CD30-274D-5B47-8571-6053280AB57D}">
   <dimension ref="A1:CF203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66:M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,10 +820,10 @@
         <v>5</v>
       </c>
       <c r="G2">
+        <v>835</v>
+      </c>
+      <c r="H2">
         <v>815.30769230769204</v>
-      </c>
-      <c r="H2">
-        <v>835</v>
       </c>
       <c r="I2">
         <v>-5.9831773999999997E-2</v>
@@ -833,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="L2">
+        <v>1054.94827586207</v>
+      </c>
+      <c r="M2">
         <v>918.05172413793105</v>
-      </c>
-      <c r="M2">
-        <v>1054.94827586207</v>
       </c>
       <c r="N2">
         <v>7.7142795828576999E-2</v>
@@ -862,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="G3">
+        <v>718.97500000000002</v>
+      </c>
+      <c r="H3">
         <v>685.538461538462</v>
-      </c>
-      <c r="H3">
-        <v>718.97500000000002</v>
       </c>
       <c r="I3">
         <v>-4.9103792E-2</v>
@@ -875,10 +875,10 @@
         <v>6</v>
       </c>
       <c r="L3">
+        <v>1082.7457627118599</v>
+      </c>
+      <c r="M3">
         <v>1067.06896551724</v>
-      </c>
-      <c r="M3">
-        <v>1082.7457627118599</v>
       </c>
       <c r="N3">
         <v>-3.02988202279037E-2</v>
@@ -904,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="G4">
+        <v>1158.23076923077</v>
+      </c>
+      <c r="H4">
         <v>928.10256410256397</v>
-      </c>
-      <c r="H4">
-        <v>1158.23076923077</v>
       </c>
       <c r="I4">
         <v>0.14754627200000001</v>
@@ -917,10 +917,10 @@
         <v>7</v>
       </c>
       <c r="L4">
+        <v>916.15094339622704</v>
+      </c>
+      <c r="M4">
         <v>715.60344827586198</v>
-      </c>
-      <c r="M4">
-        <v>916.15094339622704</v>
       </c>
       <c r="N4">
         <v>0.157102838534534</v>
@@ -946,10 +946,10 @@
         <v>8</v>
       </c>
       <c r="G5">
+        <v>725.20512820512795</v>
+      </c>
+      <c r="H5">
         <v>609.15384615384596</v>
-      </c>
-      <c r="H5">
-        <v>725.20512820512795</v>
       </c>
       <c r="I5">
         <v>6.8780321000000005E-2</v>
@@ -959,10 +959,10 @@
         <v>8</v>
       </c>
       <c r="L5">
+        <v>681.14035087719299</v>
+      </c>
+      <c r="M5">
         <v>632.74576271186402</v>
-      </c>
-      <c r="M5">
-        <v>681.14035087719299</v>
       </c>
       <c r="N5">
         <v>-3.01333575326783E-2</v>
@@ -988,10 +988,10 @@
         <v>9</v>
       </c>
       <c r="G6">
+        <v>1036.9487179487201</v>
+      </c>
+      <c r="H6">
         <v>1003.7368421052601</v>
-      </c>
-      <c r="H6">
-        <v>1036.9487179487201</v>
       </c>
       <c r="I6">
         <v>-3.5520433999999997E-2</v>
@@ -1001,10 +1001,10 @@
         <v>9</v>
       </c>
       <c r="L6">
+        <v>1235.3</v>
+      </c>
+      <c r="M6">
         <v>1033.42372881356</v>
-      </c>
-      <c r="M6">
-        <v>1235.3</v>
       </c>
       <c r="N6">
         <v>0.12993922688161</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="G7">
+        <v>845.84615384615404</v>
+      </c>
+      <c r="H7">
         <v>788.21052631579005</v>
-      </c>
-      <c r="H7">
-        <v>845.84615384615404</v>
       </c>
       <c r="I7">
         <v>-1.5665702E-2</v>
@@ -1043,10 +1043,10 @@
         <v>10</v>
       </c>
       <c r="L7">
+        <v>769.89655172413802</v>
+      </c>
+      <c r="M7">
         <v>678.59322033898297</v>
-      </c>
-      <c r="M7">
-        <v>769.89655172413802</v>
       </c>
       <c r="N7">
         <v>3.0291991369678299E-2</v>
@@ -1072,10 +1072,10 @@
         <v>11</v>
       </c>
       <c r="G8">
+        <v>1007.85</v>
+      </c>
+      <c r="H8">
         <v>930.63157894736798</v>
-      </c>
-      <c r="H8">
-        <v>1007.85</v>
       </c>
       <c r="I8">
         <v>5.9552509999999999E-3</v>
@@ -1085,10 +1085,10 @@
         <v>11</v>
       </c>
       <c r="L8">
+        <v>1181.98245614035</v>
+      </c>
+      <c r="M8">
         <v>1093.85964912281</v>
-      </c>
-      <c r="M8">
-        <v>1181.98245614035</v>
       </c>
       <c r="N8">
         <v>3.5394353359315997E-2</v>
@@ -1114,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="G9">
+        <v>917.89473684210498</v>
+      </c>
+      <c r="H9">
         <v>926.17948717948696</v>
-      </c>
-      <c r="H9">
-        <v>917.89473684210498</v>
       </c>
       <c r="I9">
         <v>-8.3101602999999996E-2</v>
@@ -1127,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="L9">
+        <v>1531.91228070175</v>
+      </c>
+      <c r="M9">
         <v>1461.45454545455</v>
-      </c>
-      <c r="M9">
-        <v>1531.91228070175</v>
       </c>
       <c r="N9">
         <v>3.7678741416157201E-2</v>
@@ -1156,10 +1156,10 @@
         <v>13</v>
       </c>
       <c r="G10">
+        <v>842.43243243243205</v>
+      </c>
+      <c r="H10">
         <v>841.61538461538498</v>
-      </c>
-      <c r="H10">
-        <v>842.43243243243205</v>
       </c>
       <c r="I10">
         <v>-8.0341044E-2</v>
@@ -1169,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="L10">
+        <v>808.66037735849102</v>
+      </c>
+      <c r="M10">
         <v>684.27272727272702</v>
-      </c>
-      <c r="M10">
-        <v>808.66037735849102</v>
       </c>
       <c r="N10">
         <v>7.2020312709136794E-2</v>
@@ -1198,10 +1198,10 @@
         <v>14</v>
       </c>
       <c r="G11">
+        <v>1003.21621621622</v>
+      </c>
+      <c r="H11">
         <v>884.78947368421098</v>
-      </c>
-      <c r="H11">
-        <v>1003.21621621622</v>
       </c>
       <c r="I11">
         <v>4.8064653999999998E-2</v>
@@ -1211,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="L11">
+        <v>763.82758620689697</v>
+      </c>
+      <c r="M11">
         <v>733.10344827586198</v>
-      </c>
-      <c r="M11">
-        <v>763.82758620689697</v>
       </c>
       <c r="N11">
         <v>-4.6171531896944097E-2</v>
@@ -1240,10 +1240,10 @@
         <v>15</v>
       </c>
       <c r="G12">
+        <v>940.60526315789502</v>
+      </c>
+      <c r="H12">
         <v>694.4</v>
-      </c>
-      <c r="H12">
-        <v>940.60526315789502</v>
       </c>
       <c r="I12">
         <v>0.207714804</v>
@@ -1253,10 +1253,10 @@
         <v>15</v>
       </c>
       <c r="L12">
+        <v>841.35185185185196</v>
+      </c>
+      <c r="M12">
         <v>701.89655172413802</v>
-      </c>
-      <c r="M12">
-        <v>841.35185185185196</v>
       </c>
       <c r="N12">
         <v>8.9090215475833498E-2</v>
@@ -1282,10 +1282,10 @@
         <v>16</v>
       </c>
       <c r="G13">
+        <v>689.63157894736798</v>
+      </c>
+      <c r="H13">
         <v>584.28205128205104</v>
-      </c>
-      <c r="H13">
-        <v>689.63157894736798</v>
       </c>
       <c r="I13">
         <v>5.7037582000000003E-2</v>
@@ -1295,10 +1295,10 @@
         <v>16</v>
       </c>
       <c r="L13">
+        <v>749.016949152542</v>
+      </c>
+      <c r="M13">
         <v>652.56896551724105</v>
-      </c>
-      <c r="M13">
-        <v>749.016949152542</v>
       </c>
       <c r="N13">
         <v>3.7491424258262997E-2</v>
@@ -1324,10 +1324,10 @@
         <v>17</v>
       </c>
       <c r="G14">
+        <v>748.68421052631595</v>
+      </c>
+      <c r="H14">
         <v>720.23684210526301</v>
-      </c>
-      <c r="H14">
-        <v>748.68421052631595</v>
       </c>
       <c r="I14">
         <v>-5.4278093999999999E-2</v>
@@ -1337,10 +1337,10 @@
         <v>17</v>
       </c>
       <c r="L14">
+        <v>1067.28</v>
+      </c>
+      <c r="M14">
         <v>1099.17857142857</v>
-      </c>
-      <c r="M14">
-        <v>1067.28</v>
       </c>
       <c r="N14">
         <v>-7.0988945581437604E-2</v>
@@ -1366,10 +1366,10 @@
         <v>18</v>
       </c>
       <c r="G15">
+        <v>880.89189189189199</v>
+      </c>
+      <c r="H15">
         <v>810.31578947368405</v>
-      </c>
-      <c r="H15">
-        <v>880.89189189189199</v>
       </c>
       <c r="I15">
         <v>-6.4857700000000001E-4</v>
@@ -1379,10 +1379,10 @@
         <v>18</v>
       </c>
       <c r="L15">
+        <v>823.21052631579005</v>
+      </c>
+      <c r="M15">
         <v>806.87931034482801</v>
-      </c>
-      <c r="M15">
-        <v>823.21052631579005</v>
       </c>
       <c r="N15">
         <v>-5.6372828423526901E-2</v>
@@ -1408,10 +1408,10 @@
         <v>19</v>
       </c>
       <c r="G16">
+        <v>752.32500000000005</v>
+      </c>
+      <c r="H16">
         <v>662.74358974358995</v>
-      </c>
-      <c r="H16">
-        <v>752.32500000000005</v>
       </c>
       <c r="I16">
         <v>2.7513203E-2</v>
@@ -1421,10 +1421,10 @@
         <v>19</v>
       </c>
       <c r="L16">
+        <v>841.29310344827604</v>
+      </c>
+      <c r="M16">
         <v>807.55172413793105</v>
-      </c>
-      <c r="M16">
-        <v>841.29310344827604</v>
       </c>
       <c r="N16">
         <v>-3.5383723966633203E-2</v>
@@ -1450,10 +1450,10 @@
         <v>20</v>
       </c>
       <c r="G17">
+        <v>1147.3243243243201</v>
+      </c>
+      <c r="H17">
         <v>994.77777777777806</v>
-      </c>
-      <c r="H17">
-        <v>1147.3243243243201</v>
       </c>
       <c r="I17">
         <v>7.3921662999999999E-2</v>
@@ -1463,10 +1463,10 @@
         <v>20</v>
       </c>
       <c r="L17">
+        <v>1149.9298245614</v>
+      </c>
+      <c r="M17">
         <v>1109.59322033898</v>
-      </c>
-      <c r="M17">
-        <v>1149.9298245614</v>
       </c>
       <c r="N17">
         <v>-4.7679720633188897E-3</v>
@@ -1492,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="G18">
+        <v>1105.8974358974399</v>
+      </c>
+      <c r="H18">
         <v>969.72972972973002</v>
-      </c>
-      <c r="H18">
-        <v>1105.8974358974399</v>
       </c>
       <c r="I18">
         <v>6.0731800000000002E-2</v>
@@ -1505,10 +1505,10 @@
         <v>21</v>
       </c>
       <c r="L18">
+        <v>1044.10344827586</v>
+      </c>
+      <c r="M18">
         <v>1061.17543859649</v>
-      </c>
-      <c r="M18">
-        <v>1044.10344827586</v>
       </c>
       <c r="N18">
         <v>-6.1726761268625502E-2</v>
@@ -1534,10 +1534,10 @@
         <v>22</v>
       </c>
       <c r="G19">
+        <v>881.13888888888903</v>
+      </c>
+      <c r="H19">
         <v>861.59459459459504</v>
-      </c>
-      <c r="H19">
-        <v>881.13888888888903</v>
       </c>
       <c r="I19">
         <v>-5.7117853000000003E-2</v>
@@ -1547,10 +1547,10 @@
         <v>22</v>
       </c>
       <c r="L19">
+        <v>961.15789473684197</v>
+      </c>
+      <c r="M19">
         <v>869.45762711864404</v>
-      </c>
-      <c r="M19">
-        <v>961.15789473684197</v>
       </c>
       <c r="N19">
         <v>3.2284068736617197E-2</v>
@@ -1576,10 +1576,10 @@
         <v>23</v>
       </c>
       <c r="G20">
+        <v>654.756756756757</v>
+      </c>
+      <c r="H20">
         <v>586.92307692307702</v>
-      </c>
-      <c r="H20">
-        <v>654.756756756757</v>
       </c>
       <c r="I20">
         <v>9.7285299999999998E-4</v>
@@ -1589,10 +1589,10 @@
         <v>23</v>
       </c>
       <c r="L20">
+        <v>691.5</v>
+      </c>
+      <c r="M20">
         <v>648.42105263157896</v>
-      </c>
-      <c r="M20">
-        <v>691.5</v>
       </c>
       <c r="N20">
         <v>-3.67497453587316E-2</v>
@@ -1618,10 +1618,10 @@
         <v>24</v>
       </c>
       <c r="G21">
+        <v>839.92105263157896</v>
+      </c>
+      <c r="H21">
         <v>751.10810810810801</v>
-      </c>
-      <c r="H21">
-        <v>839.92105263157896</v>
       </c>
       <c r="I21">
         <v>2.1896993E-2</v>
@@ -1631,10 +1631,10 @@
         <v>24</v>
       </c>
       <c r="L21">
+        <v>850.10909090909104</v>
+      </c>
+      <c r="M21">
         <v>775.84482758620697</v>
-      </c>
-      <c r="M21">
-        <v>850.10909090909104</v>
       </c>
       <c r="N21">
         <v>1.05772506106244E-2</v>
@@ -1660,10 +1660,10 @@
         <v>25</v>
       </c>
       <c r="G22">
+        <v>723.56756756756795</v>
+      </c>
+      <c r="H22">
         <v>612.13157894736798</v>
-      </c>
-      <c r="H22">
-        <v>723.56756756756795</v>
       </c>
       <c r="I22">
         <v>6.2009755999999999E-2</v>
@@ -1673,10 +1673,10 @@
         <v>25</v>
       </c>
       <c r="L22">
+        <v>917.44444444444503</v>
+      </c>
+      <c r="M22">
         <v>734.44680851063799</v>
-      </c>
-      <c r="M22">
-        <v>917.44444444444503</v>
       </c>
       <c r="N22">
         <v>0.13545416079297701</v>
@@ -1702,10 +1702,10 @@
         <v>26</v>
       </c>
       <c r="G23">
+        <v>624.79999999999995</v>
+      </c>
+      <c r="H23">
         <v>561.88888888888903</v>
-      </c>
-      <c r="H23">
-        <v>624.79999999999995</v>
       </c>
       <c r="I23">
         <v>-5.5454140000000002E-3</v>
@@ -1715,10 +1715,10 @@
         <v>26</v>
       </c>
       <c r="L23">
+        <v>727.90909090909099</v>
+      </c>
+      <c r="M23">
         <v>645.07142857142901</v>
-      </c>
-      <c r="M23">
-        <v>727.90909090909099</v>
       </c>
       <c r="N23">
         <v>1.9158258687608499E-2</v>
@@ -1744,10 +1744,10 @@
         <v>27</v>
       </c>
       <c r="G24">
+        <v>731.43589743589803</v>
+      </c>
+      <c r="H24">
         <v>762.60526315789502</v>
-      </c>
-      <c r="H24">
-        <v>731.43589743589803</v>
       </c>
       <c r="I24">
         <v>-0.130450699</v>
@@ -1757,10 +1757,10 @@
         <v>27</v>
       </c>
       <c r="L24">
+        <v>589.29824561403495</v>
+      </c>
+      <c r="M24">
         <v>567.98275862068999</v>
-      </c>
-      <c r="M24">
-        <v>589.29824561403495</v>
       </c>
       <c r="N24">
         <v>-7.9171583510161403E-2</v>
@@ -1786,10 +1786,10 @@
         <v>28</v>
       </c>
       <c r="G25">
+        <v>573.10526315789502</v>
+      </c>
+      <c r="H25">
         <v>538.25</v>
-      </c>
-      <c r="H25">
-        <v>573.10526315789502</v>
       </c>
       <c r="I25">
         <v>-5.2156584999999998E-2</v>
@@ -1799,10 +1799,10 @@
         <v>28</v>
       </c>
       <c r="L25">
+        <v>788.68965517241395</v>
+      </c>
+      <c r="M25">
         <v>717.33898305084699</v>
-      </c>
-      <c r="M25">
-        <v>788.68965517241395</v>
       </c>
       <c r="N25">
         <v>5.1455080902596097E-3</v>
@@ -1828,10 +1828,10 @@
         <v>29</v>
       </c>
       <c r="G26">
+        <v>728.71794871794896</v>
+      </c>
+      <c r="H26">
         <v>655.94871794871801</v>
-      </c>
-      <c r="H26">
-        <v>728.71794871794896</v>
       </c>
       <c r="I26">
         <v>5.162659E-3</v>
@@ -1841,10 +1841,10 @@
         <v>29</v>
       </c>
       <c r="L26">
+        <v>860.94827586206895</v>
+      </c>
+      <c r="M26">
         <v>867.62068965517199</v>
-      </c>
-      <c r="M26">
-        <v>860.94827586206895</v>
       </c>
       <c r="N26">
         <v>-7.5943796220328999E-2</v>
@@ -1870,10 +1870,10 @@
         <v>30</v>
       </c>
       <c r="G27">
+        <v>760.28571428571399</v>
+      </c>
+      <c r="H27">
         <v>691.94736842105306</v>
-      </c>
-      <c r="H27">
-        <v>760.28571428571399</v>
       </c>
       <c r="I27">
         <v>-1.8420870000000001E-3</v>
@@ -1883,10 +1883,10 @@
         <v>30</v>
       </c>
       <c r="L27">
+        <v>901.92857142857099</v>
+      </c>
+      <c r="M27">
         <v>914.52499999999998</v>
-      </c>
-      <c r="M27">
-        <v>901.92857142857099</v>
       </c>
       <c r="N27">
         <v>-7.6154124756736705E-2</v>
@@ -1912,10 +1912,10 @@
         <v>31</v>
       </c>
       <c r="G28">
+        <v>717.84615384615404</v>
+      </c>
+      <c r="H28">
         <v>645.74358974358995</v>
-      </c>
-      <c r="H28">
-        <v>717.84615384615404</v>
       </c>
       <c r="I28">
         <v>4.6329459999999998E-3</v>
@@ -1925,10 +1925,10 @@
         <v>31</v>
       </c>
       <c r="L28">
+        <v>1089.06896551724</v>
+      </c>
+      <c r="M28">
         <v>1003.71666666667</v>
-      </c>
-      <c r="M28">
-        <v>1089.06896551724</v>
       </c>
       <c r="N28">
         <v>2.98259616906476E-2</v>
@@ -1954,10 +1954,10 @@
         <v>32</v>
       </c>
       <c r="G29">
+        <v>560.82500000000005</v>
+      </c>
+      <c r="H29">
         <v>533.71052631579005</v>
-      </c>
-      <c r="H29">
-        <v>560.82500000000005</v>
       </c>
       <c r="I29">
         <v>-6.5984021000000004E-2</v>
@@ -1967,10 +1967,10 @@
         <v>32</v>
       </c>
       <c r="L29">
+        <v>646.33333333333303</v>
+      </c>
+      <c r="M29">
         <v>634.20689655172396</v>
-      </c>
-      <c r="M29">
-        <v>646.33333333333303</v>
       </c>
       <c r="N29">
         <v>-8.46327273496814E-2</v>
@@ -1996,10 +1996,10 @@
         <v>33</v>
       </c>
       <c r="G30">
+        <v>747.82051282051304</v>
+      </c>
+      <c r="H30">
         <v>649.48717948717899</v>
-      </c>
-      <c r="H30">
-        <v>747.82051282051304</v>
       </c>
       <c r="I30">
         <v>4.0194475E-2</v>
@@ -2009,10 +2009,10 @@
         <v>33</v>
       </c>
       <c r="L30">
+        <v>769.76271186440704</v>
+      </c>
+      <c r="M30">
         <v>779.59322033898297</v>
-      </c>
-      <c r="M30">
-        <v>769.76271186440704</v>
       </c>
       <c r="N30">
         <v>-9.2981200318949006E-2</v>
@@ -2038,10 +2038,10 @@
         <v>34</v>
       </c>
       <c r="G31">
+        <v>991.23684210526301</v>
+      </c>
+      <c r="H31">
         <v>773.84615384615404</v>
-      </c>
-      <c r="H31">
-        <v>991.23684210526301</v>
       </c>
       <c r="I31">
         <v>0.159960294</v>
@@ -2051,10 +2051,10 @@
         <v>34</v>
       </c>
       <c r="L31">
+        <v>1246.9649122807</v>
+      </c>
+      <c r="M31">
         <v>1072.82456140351</v>
-      </c>
-      <c r="M31">
-        <v>1246.9649122807</v>
       </c>
       <c r="N31">
         <v>0.10614096941567</v>
@@ -2080,10 +2080,10 @@
         <v>35</v>
       </c>
       <c r="G32">
+        <v>946.64705882352905</v>
+      </c>
+      <c r="H32">
         <v>928.82051282051304</v>
-      </c>
-      <c r="H32">
-        <v>946.64705882352905</v>
       </c>
       <c r="I32">
         <v>-5.4891477000000001E-2</v>
@@ -2093,10 +2093,10 @@
         <v>35</v>
       </c>
       <c r="L32">
+        <v>980.29629629629596</v>
+      </c>
+      <c r="M32">
         <v>894.12068965517199</v>
-      </c>
-      <c r="M32">
-        <v>980.29629629629596</v>
       </c>
       <c r="N32">
         <v>2.7184227473097299E-2</v>
@@ -2122,10 +2122,10 @@
         <v>36</v>
       </c>
       <c r="G33">
+        <v>1005.52631578947</v>
+      </c>
+      <c r="H33">
         <v>932.17948717948696</v>
-      </c>
-      <c r="H33">
-        <v>1005.52631578947</v>
       </c>
       <c r="I33">
         <v>2.1099869999999998E-3</v>
@@ -2135,10 +2135,10 @@
         <v>36</v>
       </c>
       <c r="L33">
+        <v>1285.04545454545</v>
+      </c>
+      <c r="M33">
         <v>1188.87755102041</v>
-      </c>
-      <c r="M33">
-        <v>1285.04545454545</v>
       </c>
       <c r="N33">
         <v>4.5094088356429703E-2</v>
@@ -2164,10 +2164,10 @@
         <v>37</v>
       </c>
       <c r="G34">
+        <v>532.97435897435901</v>
+      </c>
+      <c r="H34">
         <v>495.84615384615398</v>
-      </c>
-      <c r="H34">
-        <v>532.97435897435901</v>
       </c>
       <c r="I34">
         <v>-4.8861753000000001E-2</v>
@@ -2177,10 +2177,10 @@
         <v>37</v>
       </c>
       <c r="L34">
+        <v>655.57894736842104</v>
+      </c>
+      <c r="M34">
         <v>546.55172413793105</v>
-      </c>
-      <c r="M34">
-        <v>655.57894736842104</v>
       </c>
       <c r="N34">
         <v>6.1538316145892197E-2</v>
@@ -2206,10 +2206,10 @@
         <v>38</v>
       </c>
       <c r="G35">
+        <v>614.70000000000005</v>
+      </c>
+      <c r="H35">
         <v>582.05128205128199</v>
-      </c>
-      <c r="H35">
-        <v>614.70000000000005</v>
       </c>
       <c r="I35">
         <v>-5.4447777000000003E-2</v>
@@ -2219,10 +2219,10 @@
         <v>38</v>
       </c>
       <c r="L35">
+        <v>784.61666666666702</v>
+      </c>
+      <c r="M35">
         <v>722.66666666666697</v>
-      </c>
-      <c r="M35">
-        <v>784.61666666666702</v>
       </c>
       <c r="N35">
         <v>-6.5970129671918398E-3</v>
@@ -2248,10 +2248,10 @@
         <v>39</v>
       </c>
       <c r="G36">
+        <v>658.73684210526301</v>
+      </c>
+      <c r="H36">
         <v>610.41025641025703</v>
-      </c>
-      <c r="H36">
-        <v>658.73684210526301</v>
       </c>
       <c r="I36">
         <v>-2.9255691E-2</v>
@@ -2261,10 +2261,10 @@
         <v>39</v>
       </c>
       <c r="L36">
+        <v>689.78571428571399</v>
+      </c>
+      <c r="M36">
         <v>644.85964912280701</v>
-      </c>
-      <c r="M36">
-        <v>689.78571428571399</v>
       </c>
       <c r="N36">
         <v>-3.4345597282037697E-2</v>
@@ -2290,10 +2290,10 @@
         <v>40</v>
       </c>
       <c r="G37">
+        <v>1016.13157894737</v>
+      </c>
+      <c r="H37">
         <v>1008.82051282051</v>
-      </c>
-      <c r="H37">
-        <v>1016.13157894737</v>
       </c>
       <c r="I37">
         <v>-6.0472376000000001E-2</v>
@@ -2303,10 +2303,10 @@
         <v>40</v>
       </c>
       <c r="L37">
+        <v>851.26315789473699</v>
+      </c>
+      <c r="M37">
         <v>732.82758620689697</v>
-      </c>
-      <c r="M37">
-        <v>851.26315789473699</v>
       </c>
       <c r="N37">
         <v>6.25416017505495E-2</v>
@@ -2332,10 +2332,10 @@
         <v>41</v>
       </c>
       <c r="G38">
+        <v>1018.92105263158</v>
+      </c>
+      <c r="H38">
         <v>926.857142857143</v>
-      </c>
-      <c r="H38">
-        <v>1018.92105263158</v>
       </c>
       <c r="I38">
         <v>2.0638797E-2</v>
@@ -2345,10 +2345,10 @@
         <v>41</v>
       </c>
       <c r="L38">
+        <v>1429.7142857142901</v>
+      </c>
+      <c r="M38">
         <v>1186.06896551724</v>
-      </c>
-      <c r="M38">
-        <v>1429.7142857142901</v>
       </c>
       <c r="N38">
         <v>0.153873007884435</v>
@@ -2374,10 +2374,10 @@
         <v>42</v>
       </c>
       <c r="G39">
+        <v>901.13157894736798</v>
+      </c>
+      <c r="H39">
         <v>932.52631578947398</v>
-      </c>
-      <c r="H39">
-        <v>901.13157894736798</v>
       </c>
       <c r="I39">
         <v>-0.10784914800000001</v>
@@ -2387,10 +2387,10 @@
         <v>42</v>
       </c>
       <c r="L39">
+        <v>1069.8813559322</v>
+      </c>
+      <c r="M39">
         <v>1045.3103448275899</v>
-      </c>
-      <c r="M39">
-        <v>1069.8813559322</v>
       </c>
       <c r="N39">
         <v>-2.3973350010551901E-2</v>
@@ -2416,10 +2416,10 @@
         <v>43</v>
       </c>
       <c r="G40">
+        <v>763.86486486486501</v>
+      </c>
+      <c r="H40">
         <v>610</v>
-      </c>
-      <c r="H40">
-        <v>763.86486486486501</v>
       </c>
       <c r="I40">
         <v>0.11943287900000001</v>
@@ -2429,10 +2429,10 @@
         <v>43</v>
       </c>
       <c r="L40">
+        <v>709.06779661017003</v>
+      </c>
+      <c r="M40">
         <v>671.05172413793105</v>
-      </c>
-      <c r="M40">
-        <v>709.06779661017003</v>
       </c>
       <c r="N40">
         <v>-4.2097993474485701E-2</v>
@@ -2458,10 +2458,10 @@
         <v>44</v>
       </c>
       <c r="G41">
+        <v>760.39473684210498</v>
+      </c>
+      <c r="H41">
         <v>677.07692307692298</v>
-      </c>
-      <c r="H41">
-        <v>760.39473684210498</v>
       </c>
       <c r="I41">
         <v>1.8393698999999999E-2</v>
@@ -2471,10 +2471,10 @@
         <v>44</v>
       </c>
       <c r="L41">
+        <v>907.05172413793105</v>
+      </c>
+      <c r="M41">
         <v>825.56896551724105</v>
-      </c>
-      <c r="M41">
-        <v>907.05172413793105</v>
       </c>
       <c r="N41">
         <v>2.02989541137161E-2</v>
@@ -2500,10 +2500,10 @@
         <v>45</v>
       </c>
       <c r="G42">
+        <v>819.97435897435901</v>
+      </c>
+      <c r="H42">
         <v>716.57894736842104</v>
-      </c>
-      <c r="H42">
-        <v>819.97435897435901</v>
       </c>
       <c r="I42">
         <v>4.1386741999999997E-2</v>
@@ -2513,10 +2513,10 @@
         <v>45</v>
       </c>
       <c r="L42">
+        <v>808.07017543859695</v>
+      </c>
+      <c r="M42">
         <v>761.06896551724105</v>
-      </c>
-      <c r="M42">
-        <v>808.07017543859695</v>
       </c>
       <c r="N42">
         <v>-2.30789553722234E-2</v>
@@ -2542,10 +2542,10 @@
         <v>46</v>
       </c>
       <c r="G43">
+        <v>753.41025641025703</v>
+      </c>
+      <c r="H43">
         <v>711.35897435897402</v>
-      </c>
-      <c r="H43">
-        <v>753.41025641025703</v>
       </c>
       <c r="I43">
         <v>-3.6514612000000002E-2</v>
@@ -2555,10 +2555,10 @@
         <v>46</v>
       </c>
       <c r="L43">
+        <v>846.87931034482801</v>
+      </c>
+      <c r="M43">
         <v>892.77966101694904</v>
-      </c>
-      <c r="M43">
-        <v>846.87931034482801</v>
       </c>
       <c r="N43">
         <v>-0.117780800542947</v>
@@ -2584,10 +2584,10 @@
         <v>47</v>
       </c>
       <c r="G44">
+        <v>831.25641025641005</v>
+      </c>
+      <c r="H44">
         <v>771.02564102564099</v>
-      </c>
-      <c r="H44">
-        <v>831.25641025641005</v>
       </c>
       <c r="I44">
         <v>-1.2677848E-2</v>
@@ -2597,10 +2597,10 @@
         <v>47</v>
       </c>
       <c r="L44">
+        <v>1190.8813559322</v>
+      </c>
+      <c r="M44">
         <v>1159.3793103448299</v>
-      </c>
-      <c r="M44">
-        <v>1190.8813559322</v>
       </c>
       <c r="N44">
         <v>-8.7155787784555499E-3</v>
@@ -2626,10 +2626,10 @@
         <v>48</v>
       </c>
       <c r="G45">
+        <v>562.47368421052602</v>
+      </c>
+      <c r="H45">
         <v>560.71052631579005</v>
-      </c>
-      <c r="H45">
-        <v>562.47368421052602</v>
       </c>
       <c r="I45">
         <v>-0.108691079</v>
@@ -2639,10 +2639,10 @@
         <v>48</v>
       </c>
       <c r="L45">
+        <v>793.10526315789502</v>
+      </c>
+      <c r="M45">
         <v>707.87719298245599</v>
-      </c>
-      <c r="M45">
-        <v>793.10526315789502</v>
       </c>
       <c r="N45">
         <v>2.2508695241604398E-2</v>
@@ -2668,10 +2668,10 @@
         <v>49</v>
       </c>
       <c r="G46">
+        <v>1009.53846153846</v>
+      </c>
+      <c r="H46">
         <v>862.88888888888903</v>
-      </c>
-      <c r="H46">
-        <v>1009.53846153846</v>
       </c>
       <c r="I46">
         <v>7.7527145000000006E-2</v>
@@ -2681,10 +2681,10 @@
         <v>49</v>
       </c>
       <c r="L46">
+        <v>1064.6610169491501</v>
+      </c>
+      <c r="M46">
         <v>1084.0166666666701</v>
-      </c>
-      <c r="M46">
-        <v>1064.6610169491501</v>
       </c>
       <c r="N46">
         <v>-6.1122757480921497E-2</v>
@@ -2710,10 +2710,10 @@
         <v>50</v>
       </c>
       <c r="G47">
+        <v>1004</v>
+      </c>
+      <c r="H47">
         <v>1069.6756756756799</v>
-      </c>
-      <c r="H47">
-        <v>1004</v>
       </c>
       <c r="I47">
         <v>-0.12665512400000001</v>
@@ -2723,10 +2723,10 @@
         <v>50</v>
       </c>
       <c r="L47">
+        <v>1390.7586206896599</v>
+      </c>
+      <c r="M47">
         <v>1285.6111111111099</v>
-      </c>
-      <c r="M47">
-        <v>1390.7586206896599</v>
       </c>
       <c r="N47">
         <v>5.47485606077548E-2</v>
@@ -2752,10 +2752,10 @@
         <v>51</v>
       </c>
       <c r="G48">
+        <v>557.21052631579005</v>
+      </c>
+      <c r="H48">
         <v>498.84615384615398</v>
-      </c>
-      <c r="H48">
-        <v>557.21052631579005</v>
       </c>
       <c r="I48">
         <v>-9.9706710000000004E-3</v>
@@ -2765,10 +2765,10 @@
         <v>51</v>
       </c>
       <c r="L48">
+        <v>836.29310344827604</v>
+      </c>
+      <c r="M48">
         <v>838.08620689655197</v>
-      </c>
-      <c r="M48">
-        <v>836.29310344827604</v>
       </c>
       <c r="N48">
         <v>-7.4272095910863603E-2</v>
@@ -2794,10 +2794,10 @@
         <v>52</v>
       </c>
       <c r="G49">
+        <v>653.34210526315803</v>
+      </c>
+      <c r="H49">
         <v>637.26315789473699</v>
-      </c>
-      <c r="H49">
-        <v>653.34210526315803</v>
       </c>
       <c r="I49">
         <v>-7.7295078000000003E-2</v>
@@ -2807,10 +2807,10 @@
         <v>52</v>
       </c>
       <c r="L49">
+        <v>1041.28813559322</v>
+      </c>
+      <c r="M49">
         <v>1034.8813559322</v>
-      </c>
-      <c r="M49">
-        <v>1041.28813559322</v>
       </c>
       <c r="N49">
         <v>-4.2166589009576101E-2</v>
@@ -2836,10 +2836,10 @@
         <v>53</v>
       </c>
       <c r="G50">
+        <v>915.62162162162201</v>
+      </c>
+      <c r="H50">
         <v>884.62162162162201</v>
-      </c>
-      <c r="H50">
-        <v>915.62162162162201</v>
       </c>
       <c r="I50">
         <v>-4.3123008999999997E-2</v>
@@ -2849,10 +2849,10 @@
         <v>53</v>
       </c>
       <c r="L50">
+        <v>1613.1568627450999</v>
+      </c>
+      <c r="M50">
         <v>1447.30357142857</v>
-      </c>
-      <c r="M50">
-        <v>1613.1568627450999</v>
       </c>
       <c r="N50">
         <v>9.7987413500803394E-2</v>
@@ -2878,10 +2878,10 @@
         <v>54</v>
       </c>
       <c r="G51">
+        <v>971.86842105263202</v>
+      </c>
+      <c r="H51">
         <v>828.84615384615404</v>
-      </c>
-      <c r="H51">
-        <v>971.86842105263202</v>
       </c>
       <c r="I51">
         <v>7.6725571000000006E-2</v>
@@ -2891,10 +2891,10 @@
         <v>54</v>
       </c>
       <c r="L51">
+        <v>1256.0243902438999</v>
+      </c>
+      <c r="M51">
         <v>1198.72093023256</v>
-      </c>
-      <c r="M51">
-        <v>1256.0243902438999</v>
       </c>
       <c r="N51">
         <v>1.49361056075071E-2</v>
@@ -2920,10 +2920,10 @@
         <v>55</v>
       </c>
       <c r="G52">
+        <v>917.02857142857204</v>
+      </c>
+      <c r="H52">
         <v>919.59459459459504</v>
-      </c>
-      <c r="H52">
-        <v>917.02857142857204</v>
       </c>
       <c r="I52">
         <v>-7.7446756000000005E-2</v>
@@ -2933,10 +2933,10 @@
         <v>55</v>
       </c>
       <c r="L52">
+        <v>1153.25454545455</v>
+      </c>
+      <c r="M52">
         <v>1364.4705882352901</v>
-      </c>
-      <c r="M52">
-        <v>1153.25454545455</v>
       </c>
       <c r="N52">
         <v>-0.185329892194768</v>
@@ -2962,10 +2962,10 @@
         <v>56</v>
       </c>
       <c r="G53">
+        <v>953.92307692307702</v>
+      </c>
+      <c r="H53">
         <v>802.39473684210498</v>
-      </c>
-      <c r="H53">
-        <v>953.92307692307702</v>
       </c>
       <c r="I53">
         <v>8.8084696000000004E-2</v>
@@ -2975,10 +2975,10 @@
         <v>56</v>
       </c>
       <c r="L53">
+        <v>1643.6923076923099</v>
+      </c>
+      <c r="M53">
         <v>1740.5238095238101</v>
-      </c>
-      <c r="M53">
-        <v>1643.6923076923099</v>
       </c>
       <c r="N53">
         <v>-4.6934580087857503E-2</v>
@@ -3004,10 +3004,10 @@
         <v>57</v>
       </c>
       <c r="G54">
+        <v>580.29729729729695</v>
+      </c>
+      <c r="H54">
         <v>533.48717948717899</v>
-      </c>
-      <c r="H54">
-        <v>580.29729729729695</v>
       </c>
       <c r="I54">
         <v>-3.1465268999999997E-2</v>
@@ -3017,10 +3017,10 @@
         <v>57</v>
       </c>
       <c r="L54">
+        <v>826.20338983050897</v>
+      </c>
+      <c r="M54">
         <v>813.86440677966095</v>
-      </c>
-      <c r="M54">
-        <v>826.20338983050897</v>
       </c>
       <c r="N54">
         <v>-6.0391193377075499E-2</v>
@@ -3046,10 +3046,10 @@
         <v>58</v>
       </c>
       <c r="G55">
+        <v>626.38461538461502</v>
+      </c>
+      <c r="H55">
         <v>607.65789473684197</v>
-      </c>
-      <c r="H55">
-        <v>626.38461538461502</v>
       </c>
       <c r="I55">
         <v>-7.5435614999999998E-2</v>
@@ -3059,10 +3059,10 @@
         <v>58</v>
       </c>
       <c r="L55">
+        <v>953.30357142857099</v>
+      </c>
+      <c r="M55">
         <v>916.60344827586198</v>
-      </c>
-      <c r="M55">
-        <v>953.30357142857099</v>
       </c>
       <c r="N55">
         <v>-2.2770114953871899E-2</v>
@@ -3088,10 +3088,10 @@
         <v>59</v>
       </c>
       <c r="G56">
+        <v>944.05882352941205</v>
+      </c>
+      <c r="H56">
         <v>835.28947368421098</v>
-      </c>
-      <c r="H56">
-        <v>944.05882352941205</v>
       </c>
       <c r="I56">
         <v>4.0531774999999999E-2</v>
@@ -3101,10 +3101,10 @@
         <v>59</v>
       </c>
       <c r="L56">
+        <v>1262.6428571428601</v>
+      </c>
+      <c r="M56">
         <v>1232.93103448276</v>
-      </c>
-      <c r="M56">
-        <v>1262.6428571428601</v>
       </c>
       <c r="N56">
         <v>-4.7734373046341202E-3</v>
@@ -3130,10 +3130,10 @@
         <v>60</v>
       </c>
       <c r="G57">
+        <v>1094.9230769230801</v>
+      </c>
+      <c r="H57">
         <v>823.16216216216196</v>
-      </c>
-      <c r="H57">
-        <v>1094.9230769230801</v>
       </c>
       <c r="I57">
         <v>0.20230875000000001</v>
@@ -3143,10 +3143,10 @@
         <v>60</v>
       </c>
       <c r="L57">
+        <v>887.28571428571399</v>
+      </c>
+      <c r="M57">
         <v>767.55357142857099</v>
-      </c>
-      <c r="M57">
-        <v>887.28571428571399</v>
       </c>
       <c r="N57">
         <v>6.2911914847517306E-2</v>
@@ -3172,10 +3172,10 @@
         <v>61</v>
       </c>
       <c r="G58">
+        <v>835.18421052631595</v>
+      </c>
+      <c r="H58">
         <v>874.16666666666697</v>
-      </c>
-      <c r="H58">
-        <v>835.18421052631595</v>
       </c>
       <c r="I58">
         <v>-0.124078384</v>
@@ -3185,10 +3185,10 @@
         <v>61</v>
       </c>
       <c r="L58">
+        <v>1199.32142857143</v>
+      </c>
+      <c r="M58">
         <v>1176.3728813559301</v>
-      </c>
-      <c r="M58">
-        <v>1199.32142857143</v>
       </c>
       <c r="N58">
         <v>-1.45630509456774E-2</v>
@@ -3214,10 +3214,10 @@
         <v>62</v>
       </c>
       <c r="G59">
+        <v>1000.17647058824</v>
+      </c>
+      <c r="H59">
         <v>895.243243243243</v>
-      </c>
-      <c r="H59">
-        <v>1000.17647058824</v>
       </c>
       <c r="I59">
         <v>3.4167002000000002E-2</v>
@@ -3227,10 +3227,10 @@
         <v>62</v>
       </c>
       <c r="L59">
+        <v>930.63793103448302</v>
+      </c>
+      <c r="M59">
         <v>940.79661016949206</v>
-      </c>
-      <c r="M59">
-        <v>930.63793103448302</v>
       </c>
       <c r="N59">
         <v>-6.9946576998828405E-2</v>
@@ -3256,10 +3256,10 @@
         <v>63</v>
       </c>
       <c r="G60">
+        <v>708.33333333333303</v>
+      </c>
+      <c r="H60">
         <v>594.35897435897402</v>
-      </c>
-      <c r="H60">
-        <v>708.33333333333303</v>
       </c>
       <c r="I60">
         <v>6.7980238999999998E-2</v>
@@ -3269,10 +3269,10 @@
         <v>63</v>
       </c>
       <c r="L60">
+        <v>1014.35087719298</v>
+      </c>
+      <c r="M60">
         <v>1018.375</v>
-      </c>
-      <c r="M60">
-        <v>1014.35087719298</v>
       </c>
       <c r="N60">
         <v>-5.4111346860191201E-2</v>
@@ -3298,10 +3298,10 @@
         <v>64</v>
       </c>
       <c r="G61">
+        <v>845.23076923076906</v>
+      </c>
+      <c r="H61">
         <v>781.1</v>
-      </c>
-      <c r="H61">
-        <v>845.23076923076906</v>
       </c>
       <c r="I61">
         <v>-8.0124670000000005E-3</v>
@@ -3311,10 +3311,10 @@
         <v>64</v>
       </c>
       <c r="L61">
+        <v>1129.8448275862099</v>
+      </c>
+      <c r="M61">
         <v>1119.8448275862099</v>
-      </c>
-      <c r="M61">
-        <v>1129.8448275862099</v>
       </c>
       <c r="N61">
         <v>-3.0547852930067301E-2</v>
@@ -3340,10 +3340,10 @@
         <v>65</v>
       </c>
       <c r="G62">
+        <v>768.21052631579005</v>
+      </c>
+      <c r="H62">
         <v>668.23076923076906</v>
-      </c>
-      <c r="H62">
-        <v>768.21052631579005</v>
       </c>
       <c r="I62">
         <v>4.0782838000000002E-2</v>
@@ -3353,10 +3353,10 @@
         <v>65</v>
       </c>
       <c r="L62">
+        <v>837.016949152542</v>
+      </c>
+      <c r="M62">
         <v>754.21666666666704</v>
-      </c>
-      <c r="M62">
-        <v>837.016949152542</v>
       </c>
       <c r="N62">
         <v>2.0140556441345901E-2</v>
@@ -3382,10 +3382,10 @@
         <v>66</v>
       </c>
       <c r="G63">
+        <v>655.21212121212102</v>
+      </c>
+      <c r="H63">
         <v>600.89743589743603</v>
-      </c>
-      <c r="H63">
-        <v>655.21212121212102</v>
       </c>
       <c r="I63">
         <v>-2.0094128999999999E-2</v>
@@ -3395,10 +3395,10 @@
         <v>66</v>
       </c>
       <c r="L63">
+        <v>819.96428571428601</v>
+      </c>
+      <c r="M63">
         <v>759.79310344827604</v>
-      </c>
-      <c r="M63">
-        <v>819.96428571428601</v>
       </c>
       <c r="N63">
         <v>-6.9785187482984496E-3</v>
@@ -3424,10 +3424,10 @@
         <v>67</v>
       </c>
       <c r="G64">
+        <v>784.74358974358995</v>
+      </c>
+      <c r="H64">
         <v>732.88571428571402</v>
-      </c>
-      <c r="H64">
-        <v>784.74358974358995</v>
       </c>
       <c r="I64">
         <v>-2.3339702E-2</v>
@@ -3437,10 +3437,10 @@
         <v>67</v>
       </c>
       <c r="L64">
+        <v>1490.96363636364</v>
+      </c>
+      <c r="M64">
         <v>1376.8793103448299</v>
-      </c>
-      <c r="M64">
-        <v>1490.96363636364</v>
       </c>
       <c r="N64">
         <v>6.3472893878017606E-2</v>
@@ -3470,22 +3470,22 @@
       </c>
       <c r="G66">
         <f>AVERAGE(G2:G64)</f>
-        <v>752.21920406870277</v>
+        <v>823.87059005851211</v>
       </c>
       <c r="H66">
         <f>AVERAGE(H2:H64)</f>
-        <v>823.87059005851211</v>
+        <v>752.21920406870277</v>
       </c>
       <c r="K66" t="s">
         <v>81</v>
       </c>
       <c r="L66">
         <f>AVERAGE(L2:L64)</f>
-        <v>925.99881936431814</v>
+        <v>983.10741962066209</v>
       </c>
       <c r="M66">
         <f>AVERAGE(M2:M64)</f>
-        <v>983.10741962066209</v>
+        <v>925.99881936431814</v>
       </c>
       <c r="O66"/>
     </row>
@@ -3506,22 +3506,22 @@
       </c>
       <c r="G67">
         <f>STDEV(G2:G64)</f>
-        <v>148.95834800631337</v>
+        <v>161.5047781418796</v>
       </c>
       <c r="H67">
         <f>STDEV(H2:H64)</f>
-        <v>161.5047781418796</v>
+        <v>148.95834800631337</v>
       </c>
       <c r="K67" t="s">
         <v>83</v>
       </c>
       <c r="L67">
         <f>STDEV(L2:L64)</f>
-        <v>251.85626864444194</v>
+        <v>247.82783439781298</v>
       </c>
       <c r="M67">
         <f>STDEV(M2:M64)</f>
-        <v>247.82783439781298</v>
+        <v>251.85626864444194</v>
       </c>
       <c r="O67"/>
     </row>
@@ -3542,22 +3542,22 @@
       </c>
       <c r="G68">
         <f>G67/SQRT(COUNT(G2:G64))</f>
-        <v>18.766987834843768</v>
+        <v>20.347689452955894</v>
       </c>
       <c r="H68">
         <f>H67/SQRT(COUNT(H2:H64))</f>
-        <v>20.347689452955894</v>
+        <v>18.766987834843768</v>
       </c>
       <c r="K68" t="s">
         <v>82</v>
       </c>
       <c r="L68">
         <f>L67/SQRT(COUNT(L2:L64))</f>
-        <v>31.73090728408895</v>
+        <v>31.22337227506247</v>
       </c>
       <c r="M68">
         <f>M67/SQRT(COUNT(M2:M64))</f>
-        <v>31.22337227506247</v>
+        <v>31.73090728408895</v>
       </c>
       <c r="R68" s="9"/>
       <c r="U68" s="9"/>

--- a/Table1/GarceaBuxbaum.ActionSelection.ForGitHub.xlsx
+++ b/Table1/GarceaBuxbaum.ActionSelection.ForGitHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fgarcea/Documents/GitHub/GarceaBuxbaum_ActionSelectionProject/Table1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C1CFA-094C-C24E-8D9C-A093D0EC3327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA58DD2-B8F3-544C-8B4C-2960C0D7B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35800" windowHeight="20680" xr2:uid="{EC169B87-A1F2-0E49-A276-F5E8CA670A50}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:CF203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66:M68"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
